--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value371.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value371.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9748671665295189</v>
+        <v>1.040535926818848</v>
       </c>
       <c r="B1">
-        <v>2.088897258321001</v>
+        <v>3.473752498626709</v>
       </c>
       <c r="C1">
-        <v>2.727215662251649</v>
+        <v>3.473796129226685</v>
       </c>
       <c r="D1">
-        <v>2.374369595250831</v>
+        <v>2.028436183929443</v>
       </c>
       <c r="E1">
-        <v>0.9033715864959891</v>
+        <v>1.167825698852539</v>
       </c>
     </row>
   </sheetData>
